--- a/medicine/Sexualité et sexologie/Misère_sexuelle/Misère_sexuelle.xlsx
+++ b/medicine/Sexualité et sexologie/Misère_sexuelle/Misère_sexuelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mis%C3%A8re_sexuelle</t>
+          <t>Misère_sexuelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La misère sexuelle est la situation de toute personne qui ne peut pour des raisons essentiellement sociales et culturelles satisfaire ses besoins sexuels, et qui en souffre plus ou moins intensément[1]. On parle aussi de « misères sexuelle et affective », qui peut concerner tout type de personne ou bien par exemple des personnes emprisonnées, des personnes âgées, des personnes isolées, etc. Il peut aussi s'agir de handicapés physiques et/ou mentaux[2],[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La misère sexuelle est la situation de toute personne qui ne peut pour des raisons essentiellement sociales et culturelles satisfaire ses besoins sexuels, et qui en souffre plus ou moins intensément. On parle aussi de « misères sexuelle et affective », qui peut concerner tout type de personne ou bien par exemple des personnes emprisonnées, des personnes âgées, des personnes isolées, etc. Il peut aussi s'agir de handicapés physiques et/ou mentaux.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mis%C3%A8re_sexuelle</t>
+          <t>Misère_sexuelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Éléments de définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour le chercheur en sciences sociales Alain Giami, « la misère sexuelle consiste principalement dans l'absence ou la faiblesse de vie sexuelle non reproductive ». Il ajoute que la misère sexuelle est « prise dans un strict et complexe réseau d’interdits et de contraintes [...] elle devient pour beaucoup un objet de souffrance – morale ou physique[5] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour le chercheur en sciences sociales Alain Giami, « la misère sexuelle consiste principalement dans l'absence ou la faiblesse de vie sexuelle non reproductive ». Il ajoute que la misère sexuelle est « prise dans un strict et complexe réseau d’interdits et de contraintes [...] elle devient pour beaucoup un objet de souffrance – morale ou physique ».
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mis%C3%A8re_sexuelle</t>
+          <t>Misère_sexuelle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,13 +556,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On associe souvent l'existence de la prostitution à la misère sexuelle qui prévalait en raison de l'organisation socioreligieuse (importance sociale de la natalité, mariages forcés et plaisir sexuel rendu honteux par l'église - pour Thomas d'Aquin les actes et les relations sexuels non procréatifs étaient des « vices contre nature » - corps fatigués par la dureté de la vie et du travail...)[6], y compris parfois quand elle était utilisée par des personnes handicapées qui ne trouvaient pas d'autres moyens de satisfaire leur besoin de sexualité[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On associe souvent l'existence de la prostitution à la misère sexuelle qui prévalait en raison de l'organisation socioreligieuse (importance sociale de la natalité, mariages forcés et plaisir sexuel rendu honteux par l'église - pour Thomas d'Aquin les actes et les relations sexuels non procréatifs étaient des « vices contre nature » - corps fatigués par la dureté de la vie et du travail...), y compris parfois quand elle était utilisée par des personnes handicapées qui ne trouvaient pas d'autres moyens de satisfaire leur besoin de sexualité.
 Dans la seconde moitié du XXe siècle, à partir des années 1960, la misère sexuelle devient un sujet de préoccupation, dont une des solutions pourrait être l’émancipation par une révolution sexuelle.
-En 1966 deux ans avant Mai 1968, la revue Partisans publie un numéro « Sexualité et répression »[8] évoquant les principaux théoriciens de la révolution sexuelle, ainsi que des enquêtes sur la situation chez les jeunes et les femmes, visant selon Alain Giami à illustrer la misère sexuelle et la répression sexuelle, y compris en termes politiques[5]. 
-En 1972 la même revue Partisans publie à nouveau un numéro sur ce sujet, sur les aspects théoriques de la révolution sexuelle en cours, en réaction à la forte répression de l’homosexualité[5], peu après la publication en 1971 d'un manifeste par le Front homosexuel d’action révolutionnaire critiquant vivement la normalité et le conformisme sexuel ainsi que la phallocratie[9] ». Cette même année, l’ouvrage de l’historien belge Jos van Ussel, Histoire de la répression sexuelle est traduit en français[10], 
-En 1974, Roger-Pol Droit et Antoine Gallien publient une analyse de témoignages illustrant la misère sexuelle de nombreux français, qui se manifeste notamment par des troubles cliniques pathologiques tels que : dyspareunie (douleur au cours des rapports sexuels), vaginisme, éjaculation précoce, impuissance, frigidité… selon eux plus répandus qu’on ne saurait le croire. La misère sexuelle c'est aussi l’insatisfaction, l’ennui, la lassitude, les désirs inavoués qui souvent rendent la vie sexuelle quotidienne “misérable” (« Nous disons qu’elle est la situation de toute personne qui ne peut pour des raisons essentiellement sociales et culturelles exercer sa sexualité, et qui consciemment en souffre plus ou moins intensément »)[11]. Selon Roger-Pol Droit et Antoine Gallien (1974) « parler de misère sexuelle semble supposer, implicitement, la conception d’une certaine forme de “bonheur” (de prospérité ?) sexuel, et, l’adhésion à un certain nombre de thèses, théoriques aussi bien qu’idéologiques. Question que nous laissons volontairement en suspens, la description du caractère négatif de la misère sexuelle se suffisant à elle-même » [12]. Alain Giami, en 2002 note que ces auteurs n'évoquent que la situation des adultes hétérosexuels, et uniquement sous un angle essentiellement psychologique et clinique, préfigurant la médicalisation de la sexualité qu'il a selon lui décrit en 2000 dans « Médicalisation de la société et médicalisation de la société »[13].
+En 1966 deux ans avant Mai 1968, la revue Partisans publie un numéro « Sexualité et répression » évoquant les principaux théoriciens de la révolution sexuelle, ainsi que des enquêtes sur la situation chez les jeunes et les femmes, visant selon Alain Giami à illustrer la misère sexuelle et la répression sexuelle, y compris en termes politiques. 
+En 1972 la même revue Partisans publie à nouveau un numéro sur ce sujet, sur les aspects théoriques de la révolution sexuelle en cours, en réaction à la forte répression de l’homosexualité, peu après la publication en 1971 d'un manifeste par le Front homosexuel d’action révolutionnaire critiquant vivement la normalité et le conformisme sexuel ainsi que la phallocratie ». Cette même année, l’ouvrage de l’historien belge Jos van Ussel, Histoire de la répression sexuelle est traduit en français, 
+En 1974, Roger-Pol Droit et Antoine Gallien publient une analyse de témoignages illustrant la misère sexuelle de nombreux français, qui se manifeste notamment par des troubles cliniques pathologiques tels que : dyspareunie (douleur au cours des rapports sexuels), vaginisme, éjaculation précoce, impuissance, frigidité… selon eux plus répandus qu’on ne saurait le croire. La misère sexuelle c'est aussi l’insatisfaction, l’ennui, la lassitude, les désirs inavoués qui souvent rendent la vie sexuelle quotidienne “misérable” (« Nous disons qu’elle est la situation de toute personne qui ne peut pour des raisons essentiellement sociales et culturelles exercer sa sexualité, et qui consciemment en souffre plus ou moins intensément »). Selon Roger-Pol Droit et Antoine Gallien (1974) « parler de misère sexuelle semble supposer, implicitement, la conception d’une certaine forme de “bonheur” (de prospérité ?) sexuel, et, l’adhésion à un certain nombre de thèses, théoriques aussi bien qu’idéologiques. Question que nous laissons volontairement en suspens, la description du caractère négatif de la misère sexuelle se suffisant à elle-même » . Alain Giami, en 2002 note que ces auteurs n'évoquent que la situation des adultes hétérosexuels, et uniquement sous un angle essentiellement psychologique et clinique, préfigurant la médicalisation de la sexualité qu'il a selon lui décrit en 2000 dans « Médicalisation de la société et médicalisation de la société ».
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mis%C3%A8re_sexuelle</t>
+          <t>Misère_sexuelle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Controverse et féminisme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des chercheurs avancent que la notion de misère sexuelle sous-tend l'idée que les femmes "doivent" des relations sexuelles aux hommes, qui auraient une libido plus forte. Le concept serait même utilisé pour justifier certaines violences sexuelles, participant ainsi à la culture du viol[14].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des chercheurs avancent que la notion de misère sexuelle sous-tend l'idée que les femmes "doivent" des relations sexuelles aux hommes, qui auraient une libido plus forte. Le concept serait même utilisé pour justifier certaines violences sexuelles, participant ainsi à la culture du viol.
 </t>
         </is>
       </c>
